--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf2</t>
+  </si>
+  <si>
+    <t>Sdc1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf2</t>
-  </si>
-  <si>
-    <t>Sdc1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H2">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N2">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O2">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P2">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q2">
-        <v>0.5483655799443333</v>
+        <v>1.430020512477666</v>
       </c>
       <c r="R2">
-        <v>4.935290219499</v>
+        <v>12.870184612299</v>
       </c>
       <c r="S2">
-        <v>0.001336630743002162</v>
+        <v>0.003747031694323518</v>
       </c>
       <c r="T2">
-        <v>0.001336630743002162</v>
+        <v>0.003747031694323519</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H3">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>36.503158</v>
       </c>
       <c r="O3">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P3">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q3">
-        <v>4.842496772560667</v>
+        <v>12.33592994130377</v>
       </c>
       <c r="R3">
-        <v>43.582470953046</v>
+        <v>111.023369471734</v>
       </c>
       <c r="S3">
-        <v>0.01180349441288856</v>
+        <v>0.03232339680843676</v>
       </c>
       <c r="T3">
-        <v>0.01180349441288856</v>
+        <v>0.03232339680843677</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H4">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N4">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O4">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P4">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q4">
-        <v>0.9757401048423334</v>
+        <v>4.365009515099</v>
       </c>
       <c r="R4">
-        <v>8.781660943581</v>
+        <v>39.285085635891</v>
       </c>
       <c r="S4">
-        <v>0.002378348074736583</v>
+        <v>0.01143747859305978</v>
       </c>
       <c r="T4">
-        <v>0.002378348074736583</v>
+        <v>0.01143747859305978</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H5">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I5">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J5">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N5">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O5">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P5">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q5">
-        <v>3.955791070342</v>
+        <v>6.391900854988666</v>
       </c>
       <c r="R5">
-        <v>35.602119633078</v>
+        <v>57.52710769489799</v>
       </c>
       <c r="S5">
-        <v>0.009642166012770698</v>
+        <v>0.01674846960699816</v>
       </c>
       <c r="T5">
-        <v>0.0096421660127707</v>
+        <v>0.01674846960699816</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H6">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I6">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J6">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N6">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O6">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P6">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q6">
-        <v>0.3244900550953334</v>
+        <v>0.5200956003558888</v>
       </c>
       <c r="R6">
-        <v>2.920410495858</v>
+        <v>4.680860403203</v>
       </c>
       <c r="S6">
-        <v>0.0007909383799816844</v>
+        <v>0.001362787933185098</v>
       </c>
       <c r="T6">
-        <v>0.0007909383799816844</v>
+        <v>0.001362787933185098</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H7">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I7">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J7">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N7">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O7">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P7">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q7">
-        <v>0.360285612952</v>
+        <v>1.843295863717666</v>
       </c>
       <c r="R7">
-        <v>3.242570516568</v>
+        <v>16.589662773459</v>
       </c>
       <c r="S7">
-        <v>0.0008781893761127511</v>
+        <v>0.00482992234244151</v>
       </c>
       <c r="T7">
-        <v>0.0008781893761127512</v>
+        <v>0.004829922342441512</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H8">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I8">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J8">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N8">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O8">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P8">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q8">
-        <v>15.63739887377911</v>
+        <v>16.00788810662533</v>
       </c>
       <c r="R8">
-        <v>140.736589864012</v>
+        <v>144.070992959628</v>
       </c>
       <c r="S8">
-        <v>0.03811586437901941</v>
+        <v>0.04194489769295977</v>
       </c>
       <c r="T8">
-        <v>0.03811586437901941</v>
+        <v>0.04194489769295977</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H9">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I9">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J9">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>36.503158</v>
       </c>
       <c r="O9">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P9">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q9">
         <v>138.0904570728275</v>
@@ -1013,10 +1013,10 @@
         <v>1242.814113655448</v>
       </c>
       <c r="S9">
-        <v>0.3365928807156323</v>
+        <v>0.3618334945692516</v>
       </c>
       <c r="T9">
-        <v>0.3365928807156325</v>
+        <v>0.3618334945692517</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H10">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I10">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J10">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N10">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O10">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P10">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q10">
-        <v>27.82457137100311</v>
+        <v>48.86264448122801</v>
       </c>
       <c r="R10">
-        <v>250.421142339028</v>
+        <v>439.763800331052</v>
       </c>
       <c r="S10">
-        <v>0.06782186713673016</v>
+        <v>0.1280330428424417</v>
       </c>
       <c r="T10">
-        <v>0.06782186713673018</v>
+        <v>0.1280330428424417</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H11">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I11">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J11">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N11">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O11">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P11">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q11">
-        <v>112.8048241732293</v>
+        <v>71.55200417231734</v>
       </c>
       <c r="R11">
-        <v>1015.243417559064</v>
+        <v>643.968037550856</v>
       </c>
       <c r="S11">
-        <v>0.2749596281447821</v>
+        <v>0.187485161986604</v>
       </c>
       <c r="T11">
-        <v>0.2749596281447822</v>
+        <v>0.187485161986604</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H12">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I12">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J12">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N12">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O12">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P12">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q12">
-        <v>9.253280307300443</v>
+        <v>5.822036888701778</v>
       </c>
       <c r="R12">
-        <v>83.27952276570399</v>
+        <v>52.398331998316</v>
       </c>
       <c r="S12">
-        <v>0.02255469596324738</v>
+        <v>0.01525527540139181</v>
       </c>
       <c r="T12">
-        <v>0.02255469596324738</v>
+        <v>0.01525527540139181</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H13">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I13">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J13">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N13">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O13">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P13">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q13">
-        <v>10.27403988190933</v>
+        <v>20.63416131190533</v>
       </c>
       <c r="R13">
-        <v>92.46635893718398</v>
+        <v>185.707451807148</v>
       </c>
       <c r="S13">
-        <v>0.02504277814516432</v>
+        <v>0.05406695620577746</v>
       </c>
       <c r="T13">
-        <v>0.02504277814516433</v>
+        <v>0.05406695620577748</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H14">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I14">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J14">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N14">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O14">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P14">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q14">
-        <v>0.164704367815</v>
+        <v>2.092311841081</v>
       </c>
       <c r="R14">
-        <v>1.482339310335</v>
+        <v>18.830806569729</v>
       </c>
       <c r="S14">
-        <v>0.0004014637854378331</v>
+        <v>0.005482410017570528</v>
       </c>
       <c r="T14">
-        <v>0.0004014637854378332</v>
+        <v>0.005482410017570529</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H15">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I15">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J15">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>36.503158</v>
       </c>
       <c r="O15">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P15">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q15">
-        <v>1.45446833051</v>
+        <v>18.04912031801267</v>
       </c>
       <c r="R15">
-        <v>13.09021497459</v>
+        <v>162.442082862114</v>
       </c>
       <c r="S15">
-        <v>0.003545239082073762</v>
+        <v>0.0472934655804864</v>
       </c>
       <c r="T15">
-        <v>0.003545239082073763</v>
+        <v>0.04729346558048641</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H16">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I16">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J16">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N16">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O16">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P16">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q16">
-        <v>0.293068461985</v>
+        <v>6.386594468529002</v>
       </c>
       <c r="R16">
-        <v>2.637616157865</v>
+        <v>57.47935021676101</v>
       </c>
       <c r="S16">
-        <v>0.0007143488402997079</v>
+        <v>0.01673456547200625</v>
       </c>
       <c r="T16">
-        <v>0.000714348840299708</v>
+        <v>0.01673456547200625</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H17">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I17">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J17">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N17">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O17">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P17">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q17">
-        <v>1.18814180043</v>
+        <v>9.352208397862</v>
       </c>
       <c r="R17">
-        <v>10.69327620387</v>
+        <v>84.169875580758</v>
       </c>
       <c r="S17">
-        <v>0.002896073195662447</v>
+        <v>0.02450525777283546</v>
       </c>
       <c r="T17">
-        <v>0.002896073195662448</v>
+        <v>0.02450525777283547</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H18">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I18">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J18">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N18">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O18">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P18">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q18">
-        <v>0.09746222473</v>
+        <v>0.7609696319903334</v>
       </c>
       <c r="R18">
-        <v>0.87716002257</v>
+        <v>6.848726687913</v>
       </c>
       <c r="S18">
-        <v>0.0002375623318092428</v>
+        <v>0.001993941558604051</v>
       </c>
       <c r="T18">
-        <v>0.0002375623318092428</v>
+        <v>0.001993941558604052</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H19">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I19">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J19">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N19">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O19">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P19">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q19">
-        <v>0.10821360108</v>
+        <v>2.696989119121</v>
       </c>
       <c r="R19">
-        <v>0.97392240972</v>
+        <v>24.272902072089</v>
       </c>
       <c r="S19">
-        <v>0.0002637686085789393</v>
+        <v>0.007066824301060423</v>
       </c>
       <c r="T19">
-        <v>0.0002637686085789394</v>
+        <v>0.007066824301060425</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H20">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I20">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J20">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N20">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O20">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P20">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q20">
-        <v>3.278096190604555</v>
+        <v>0.4429026536526667</v>
       </c>
       <c r="R20">
-        <v>29.502865715441</v>
+        <v>3.986123882874</v>
       </c>
       <c r="S20">
-        <v>0.007990297544432156</v>
+        <v>0.001160522010877416</v>
       </c>
       <c r="T20">
-        <v>0.007990297544432159</v>
+        <v>0.001160522010877416</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H21">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I21">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J21">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>36.503158</v>
       </c>
       <c r="O21">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P21">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q21">
-        <v>28.94815211552378</v>
+        <v>3.820655758853778</v>
       </c>
       <c r="R21">
-        <v>260.533369039714</v>
+        <v>34.385901829684</v>
       </c>
       <c r="S21">
-        <v>0.07056057397811147</v>
+        <v>0.01001112788006134</v>
       </c>
       <c r="T21">
-        <v>0.07056057397811151</v>
+        <v>0.01001112788006135</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H22">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I22">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J22">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N22">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O22">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P22">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q22">
-        <v>5.832915189586555</v>
+        <v>1.351920675674</v>
       </c>
       <c r="R22">
-        <v>52.496236706279</v>
+        <v>12.167286081066</v>
       </c>
       <c r="S22">
-        <v>0.01421762059631299</v>
+        <v>0.003542389480263389</v>
       </c>
       <c r="T22">
-        <v>0.01421762059631299</v>
+        <v>0.003542389480263388</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H23">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I23">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J23">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N23">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O23">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P23">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q23">
-        <v>23.64747918684467</v>
+        <v>1.979684784838667</v>
       </c>
       <c r="R23">
-        <v>212.827312681602</v>
+        <v>17.817163063548</v>
       </c>
       <c r="S23">
-        <v>0.05764028383920263</v>
+        <v>0.005187297363104342</v>
       </c>
       <c r="T23">
-        <v>0.05764028383920265</v>
+        <v>0.005187297363104343</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H24">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I24">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J24">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N24">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O24">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P24">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q24">
-        <v>1.939781876180222</v>
+        <v>0.1610828093308889</v>
       </c>
       <c r="R24">
-        <v>17.458036885622</v>
+        <v>1.449745283978</v>
       </c>
       <c r="S24">
-        <v>0.004728181682526645</v>
+        <v>0.0004220795343192249</v>
       </c>
       <c r="T24">
-        <v>0.004728181682526646</v>
+        <v>0.000422079534319225</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H25">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I25">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J25">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N25">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O25">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P25">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q25">
-        <v>2.153765550834667</v>
+        <v>0.5709013418926667</v>
       </c>
       <c r="R25">
-        <v>19.383889957512</v>
+        <v>5.138112077034</v>
       </c>
       <c r="S25">
-        <v>0.005249762847545677</v>
+        <v>0.001495912403869842</v>
       </c>
       <c r="T25">
-        <v>0.005249762847545678</v>
+        <v>0.001495912403869842</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H26">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I26">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J26">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N26">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O26">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P26">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q26">
-        <v>0.1799501027747777</v>
+        <v>0.3255148644696667</v>
       </c>
       <c r="R26">
-        <v>1.619550924973</v>
+        <v>2.929633780226999</v>
       </c>
       <c r="S26">
-        <v>0.0004386249764246386</v>
+        <v>0.0008529349778542527</v>
       </c>
       <c r="T26">
-        <v>0.0004386249764246387</v>
+        <v>0.0008529349778542526</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H27">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I27">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J27">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>36.503158</v>
       </c>
       <c r="O27">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P27">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q27">
-        <v>1.589100089026888</v>
+        <v>2.808021652775778</v>
       </c>
       <c r="R27">
-        <v>14.301900801242</v>
+        <v>25.272194874982</v>
       </c>
       <c r="S27">
-        <v>0.003873401450390869</v>
+        <v>0.007357758884918005</v>
       </c>
       <c r="T27">
-        <v>0.003873401450390871</v>
+        <v>0.007357758884918005</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H28">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I28">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J28">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N28">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O28">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P28">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q28">
-        <v>0.3201961220207777</v>
+        <v>0.9936049646270001</v>
       </c>
       <c r="R28">
-        <v>2.881765098187</v>
+        <v>8.942444681643</v>
       </c>
       <c r="S28">
-        <v>0.0007804719992208286</v>
+        <v>0.002603507615176754</v>
       </c>
       <c r="T28">
-        <v>0.0007804719992208286</v>
+        <v>0.002603507615176753</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H29">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I29">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J29">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N29">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O29">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P29">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q29">
-        <v>1.298121245567333</v>
+        <v>1.454985241372667</v>
       </c>
       <c r="R29">
-        <v>11.683091210106</v>
+        <v>13.094867172354</v>
       </c>
       <c r="S29">
-        <v>0.003164146015775996</v>
+        <v>0.003812445882157569</v>
       </c>
       <c r="T29">
-        <v>0.003164146015775997</v>
+        <v>0.003812445882157569</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H30">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I30">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J30">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N30">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O30">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P30">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q30">
-        <v>0.1064837416851111</v>
+        <v>0.1183891051798889</v>
       </c>
       <c r="R30">
-        <v>0.9583536751659999</v>
+        <v>1.065501946619</v>
       </c>
       <c r="S30">
-        <v>0.0002595521089793213</v>
+        <v>0.0003102107455808767</v>
       </c>
       <c r="T30">
-        <v>0.0002595521089793213</v>
+        <v>0.0003102107455808767</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,433 +2326,61 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H31">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I31">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J31">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N31">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O31">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P31">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q31">
-        <v>0.1182303110373333</v>
+        <v>0.4195885289896666</v>
       </c>
       <c r="R31">
-        <v>1.064072799336</v>
+        <v>3.776296760907</v>
       </c>
       <c r="S31">
-        <v>0.0002881841498936708</v>
+        <v>0.001099432842382684</v>
       </c>
       <c r="T31">
-        <v>0.0002881841498936709</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H32">
-        <v>1.372081</v>
-      </c>
-      <c r="I32">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J32">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1.377875666666666</v>
-      </c>
-      <c r="N32">
-        <v>4.133627</v>
-      </c>
-      <c r="O32">
-        <v>0.04981894710555809</v>
-      </c>
-      <c r="P32">
-        <v>0.04981894710555809</v>
-      </c>
-      <c r="Q32">
-        <v>0.6301856741985555</v>
-      </c>
-      <c r="R32">
-        <v>5.671671067787</v>
-      </c>
-      <c r="S32">
-        <v>0.001536065677241889</v>
-      </c>
-      <c r="T32">
-        <v>0.001536065677241889</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H33">
-        <v>1.372081</v>
-      </c>
-      <c r="I33">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J33">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>12.16771933333333</v>
-      </c>
-      <c r="N33">
-        <v>36.503158</v>
-      </c>
-      <c r="O33">
-        <v>0.4399402504357141</v>
-      </c>
-      <c r="P33">
-        <v>0.4399402504357141</v>
-      </c>
-      <c r="Q33">
-        <v>5.565032170199777</v>
-      </c>
-      <c r="R33">
-        <v>50.085289531798</v>
-      </c>
-      <c r="S33">
-        <v>0.01356466079661703</v>
-      </c>
-      <c r="T33">
-        <v>0.01356466079661704</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H34">
-        <v>1.372081</v>
-      </c>
-      <c r="I34">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J34">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>2.451737666666667</v>
-      </c>
-      <c r="N34">
-        <v>7.355213</v>
-      </c>
-      <c r="O34">
-        <v>0.08864587138537494</v>
-      </c>
-      <c r="P34">
-        <v>0.08864587138537493</v>
-      </c>
-      <c r="Q34">
-        <v>1.121327556472556</v>
-      </c>
-      <c r="R34">
-        <v>10.091948008253</v>
-      </c>
-      <c r="S34">
-        <v>0.002733214738074661</v>
-      </c>
-      <c r="T34">
-        <v>0.002733214738074661</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H35">
-        <v>1.372081</v>
-      </c>
-      <c r="I35">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J35">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>9.939698</v>
-      </c>
-      <c r="N35">
-        <v>29.819094</v>
-      </c>
-      <c r="O35">
-        <v>0.3593831438399412</v>
-      </c>
-      <c r="P35">
-        <v>0.3593831438399412</v>
-      </c>
-      <c r="Q35">
-        <v>4.546023590512667</v>
-      </c>
-      <c r="R35">
-        <v>40.91421231461401</v>
-      </c>
-      <c r="S35">
-        <v>0.01108084663174726</v>
-      </c>
-      <c r="T35">
-        <v>0.01108084663174727</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H36">
-        <v>1.372081</v>
-      </c>
-      <c r="I36">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J36">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0.8153446666666667</v>
-      </c>
-      <c r="N36">
-        <v>2.446034</v>
-      </c>
-      <c r="O36">
-        <v>0.02947988254973095</v>
-      </c>
-      <c r="P36">
-        <v>0.02947988254973094</v>
-      </c>
-      <c r="Q36">
-        <v>0.3729063085282223</v>
-      </c>
-      <c r="R36">
-        <v>3.356156776754</v>
-      </c>
-      <c r="S36">
-        <v>0.0009089520831866752</v>
-      </c>
-      <c r="T36">
-        <v>0.0009089520831866753</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H37">
-        <v>1.372081</v>
-      </c>
-      <c r="I37">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J37">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.905288</v>
-      </c>
-      <c r="N37">
-        <v>2.715864</v>
-      </c>
-      <c r="O37">
-        <v>0.0327319046836808</v>
-      </c>
-      <c r="P37">
-        <v>0.0327319046836808</v>
-      </c>
-      <c r="Q37">
-        <v>0.4140428214426667</v>
-      </c>
-      <c r="R37">
-        <v>3.726385392984</v>
-      </c>
-      <c r="S37">
-        <v>0.001009221556385437</v>
-      </c>
-      <c r="T37">
-        <v>0.001009221556385437</v>
+        <v>0.001099432842382684</v>
       </c>
     </row>
   </sheetData>
